--- a/results/mp/logistic/corona/confidence/42/0.1/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/42/0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,25 +40,19 @@
     <t>name</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>drop</t>
+    <t>emergency</t>
   </si>
   <si>
     <t>low</t>
@@ -67,6 +61,9 @@
     <t>no</t>
   </si>
   <si>
+    <t>the</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
@@ -76,106 +73,106 @@
     <t>best</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>support</t>
   </si>
   <si>
-    <t>positive</t>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>thank</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
-    <t>thanks</t>
+    <t>won</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>nice</t>
   </si>
   <si>
     <t>safe</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>won</t>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>join</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
     <t>gt</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>relief</t>
   </si>
   <si>
-    <t>like</t>
+    <t>help</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
+    <t>alert</t>
+  </si>
+  <si>
     <t>safety</t>
   </si>
   <si>
+    <t>protect</t>
+  </si>
+  <si>
     <t>increase</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>you</t>
   </si>
 </sst>
 </file>
@@ -541,10 +538,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -602,13 +599,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7586206896551724</v>
+        <v>0.7636986301369864</v>
       </c>
       <c r="C3">
-        <v>22</v>
+        <v>223</v>
       </c>
       <c r="D3">
-        <v>22</v>
+        <v>223</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -620,10 +617,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K3">
         <v>0.9347826086956522</v>
@@ -652,13 +649,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7431506849315068</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="C4">
-        <v>217</v>
+        <v>21</v>
       </c>
       <c r="D4">
-        <v>217</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -670,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K4">
-        <v>0.9152542372881356</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L4">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M4">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -694,7 +691,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -702,13 +699,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.5526315789473685</v>
+        <v>0.3703703703703703</v>
       </c>
       <c r="C5">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="D5">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -720,19 +717,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>17</v>
+        <v>119</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K5">
-        <v>0.9083333333333333</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L5">
-        <v>109</v>
+        <v>24</v>
       </c>
       <c r="M5">
-        <v>109</v>
+        <v>24</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -744,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -752,13 +749,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.4285714285714285</v>
+        <v>0.3255813953488372</v>
       </c>
       <c r="C6">
-        <v>81</v>
+        <v>168</v>
       </c>
       <c r="D6">
-        <v>81</v>
+        <v>168</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -770,19 +767,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>108</v>
+        <v>348</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K6">
-        <v>0.8846153846153846</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L6">
-        <v>23</v>
+        <v>110</v>
       </c>
       <c r="M6">
-        <v>23</v>
+        <v>110</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -794,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -802,7 +799,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.3725490196078431</v>
+        <v>0.2533333333333334</v>
       </c>
       <c r="C7">
         <v>19</v>
@@ -820,10 +817,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K7">
         <v>0.8839285714285714</v>
@@ -852,13 +849,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.3294573643410852</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="C8">
-        <v>170</v>
+        <v>29</v>
       </c>
       <c r="D8">
-        <v>170</v>
+        <v>29</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -870,19 +867,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>346</v>
+        <v>120</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K8">
-        <v>0.8381201044386423</v>
+        <v>0.8276762402088773</v>
       </c>
       <c r="L8">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="M8">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -894,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -902,13 +899,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.3220338983050847</v>
+        <v>0.125</v>
       </c>
       <c r="C9">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="D9">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -920,19 +917,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>40</v>
+        <v>315</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K9">
-        <v>0.8207547169811321</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="L9">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="M9">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -944,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -952,87 +949,63 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.2147651006711409</v>
+        <v>0.004070556309362279</v>
       </c>
       <c r="C10">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D10">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.78</v>
       </c>
       <c r="G10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
-        <v>117</v>
+        <v>5138</v>
       </c>
       <c r="J10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10">
+        <v>0.8207547169811321</v>
+      </c>
+      <c r="L10">
+        <v>87</v>
+      </c>
+      <c r="M10">
+        <v>87</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="J11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K10">
-        <v>0.8103448275862069</v>
-      </c>
-      <c r="L10">
-        <v>47</v>
-      </c>
-      <c r="M10">
-        <v>47</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>0.1</v>
-      </c>
-      <c r="C11">
-        <v>36</v>
-      </c>
-      <c r="D11">
-        <v>36</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>324</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="K11">
-        <v>0.8055555555555556</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L11">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="M11">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1044,21 +1017,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K12">
-        <v>0.8048780487804879</v>
+        <v>0.78125</v>
       </c>
       <c r="L12">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="M12">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1070,21 +1043,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K13">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="L13">
         <v>28</v>
       </c>
-      <c r="K13">
-        <v>0.7746478873239436</v>
-      </c>
-      <c r="L13">
-        <v>110</v>
-      </c>
       <c r="M13">
-        <v>110</v>
+        <v>28</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1096,21 +1069,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K14">
-        <v>0.7708333333333334</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L14">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="M14">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1122,21 +1095,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K15">
-        <v>0.7692307692307693</v>
+        <v>0.7625</v>
       </c>
       <c r="L15">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="M15">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1148,21 +1121,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>9</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K16">
-        <v>0.7575757575757576</v>
+        <v>0.75</v>
       </c>
       <c r="L16">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="M16">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1174,21 +1147,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K17">
-        <v>0.75</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L17">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="M17">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1200,21 +1173,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K18">
-        <v>0.75</v>
+        <v>0.7323943661971831</v>
       </c>
       <c r="L18">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="M18">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1226,21 +1199,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K19">
-        <v>0.7446808510638298</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L19">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="M19">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1252,21 +1225,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K20">
-        <v>0.7407407407407407</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L20">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M20">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1278,21 +1251,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K21">
-        <v>0.7375</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L21">
-        <v>118</v>
+        <v>20</v>
       </c>
       <c r="M21">
-        <v>118</v>
+        <v>20</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1304,21 +1277,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>42</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K22">
-        <v>0.6785714285714286</v>
+        <v>0.6976744186046512</v>
       </c>
       <c r="L22">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M22">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1330,21 +1303,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K23">
-        <v>0.6666666666666666</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="L23">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="M23">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1356,21 +1329,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K24">
-        <v>0.6571428571428571</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="L24">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="M24">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1382,21 +1355,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K25">
+        <v>0.6349206349206349</v>
+      </c>
+      <c r="L25">
         <v>40</v>
       </c>
-      <c r="K25">
-        <v>0.6511627906976745</v>
-      </c>
-      <c r="L25">
-        <v>28</v>
-      </c>
       <c r="M25">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1408,21 +1381,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K26">
-        <v>0.65</v>
+        <v>0.625</v>
       </c>
       <c r="L26">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M26">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1434,21 +1407,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K27">
-        <v>0.62</v>
+        <v>0.6029411764705882</v>
       </c>
       <c r="L27">
-        <v>31</v>
+        <v>205</v>
       </c>
       <c r="M27">
-        <v>31</v>
+        <v>205</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1460,21 +1433,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>19</v>
+        <v>135</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K28">
-        <v>0.5882352941176471</v>
+        <v>0.58</v>
       </c>
       <c r="L28">
-        <v>200</v>
+        <v>29</v>
       </c>
       <c r="M28">
-        <v>200</v>
+        <v>29</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1486,21 +1459,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>140</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K29">
-        <v>0.5774058577405857</v>
+        <v>0.5694915254237288</v>
       </c>
       <c r="L29">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="M29">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1512,21 +1485,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>101</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K30">
-        <v>0.5692307692307692</v>
+        <v>0.5538461538461539</v>
       </c>
       <c r="L30">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M30">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1538,21 +1511,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K31">
-        <v>0.5559322033898305</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="L31">
-        <v>164</v>
+        <v>52</v>
       </c>
       <c r="M31">
-        <v>164</v>
+        <v>52</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1564,21 +1537,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>131</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K32">
-        <v>0.5425531914893617</v>
+        <v>0.5523012552301255</v>
       </c>
       <c r="L32">
-        <v>51</v>
+        <v>132</v>
       </c>
       <c r="M32">
-        <v>51</v>
+        <v>132</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1590,21 +1563,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>43</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K33">
-        <v>0.5</v>
+        <v>0.5285714285714286</v>
       </c>
       <c r="L33">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M33">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1616,21 +1589,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K34">
-        <v>0.4382022471910113</v>
+        <v>0.4719101123595505</v>
       </c>
       <c r="L34">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M34">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1642,21 +1615,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K35">
-        <v>0.4313725490196079</v>
+        <v>0.4523809523809524</v>
       </c>
       <c r="L35">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M35">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1668,15 +1641,15 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K36">
-        <v>0.282051282051282</v>
+        <v>0.4313725490196079</v>
       </c>
       <c r="L36">
         <v>22</v>
@@ -1694,21 +1667,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>56</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K37">
-        <v>0.273972602739726</v>
+        <v>0.3287671232876712</v>
       </c>
       <c r="L37">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M37">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1720,33 +1693,33 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K38">
-        <v>0.01751459549624687</v>
+        <v>0.2564102564102564</v>
       </c>
       <c r="L38">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M38">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N38">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O38">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>1178</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
